--- a/报销信息.xlsx
+++ b/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\PycharmProjects\CursorCode8-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186EEB4C-7502-4B9A-8A0C-CA4B03368833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A030A5-0529-4E6A-B54C-703BC350D0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15950" yWindow="8920" windowWidth="19200" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#外聘工资</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>处理进度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -249,6 +245,42 @@
   </si>
   <si>
     <t>G4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步按钮3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#电费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$清水河校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$预约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -344,6 +376,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -646,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,11 +704,14 @@
     <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -737,10 +779,25 @@
       <c r="W1" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -782,7 +839,7 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -806,7 +863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -825,10 +882,25 @@
       <c r="W3" t="s">
         <v>53</v>
       </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>2</v>
